--- a/ldas/data/media/properties.xlsx
+++ b/ldas/data/media/properties.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>dcterms:identifier</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>{'Identifier': 1}</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{True: 1}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'literal': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>dcterms:title</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>{'Title': 97}</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{True: 97}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{'literal': 97}</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'Title': 102}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{True: 102}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'literal': 102}</t>
         </is>
       </c>
     </row>

--- a/ldas/data/media/properties.xlsx
+++ b/ldas/data/media/properties.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'Title': 102}</t>
+          <t>{'Title': 99}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{True: 102}</t>
+          <t>{True: 99}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'literal': 102}</t>
+          <t>{'literal': 99}</t>
         </is>
       </c>
     </row>
